--- a/Pontos De Funcao - Requisitos.xlsx
+++ b/Pontos De Funcao - Requisitos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="21015" windowHeight="8205"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Nome do Requisito</t>
   </si>
@@ -49,13 +49,28 @@
   </si>
   <si>
     <t>RF07</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Saída</t>
+  </si>
+  <si>
+    <t>Simples</t>
+  </si>
+  <si>
+    <t>Complexo</t>
+  </si>
+  <si>
+    <t>Médio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +107,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -170,6 +190,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -204,6 +225,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -379,21 +401,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,44 +426,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -450,24 +520,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
